--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_999/metrics/Trial_200__Reeval_Sobol_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_999/metrics/Trial_200__Reeval_Sobol_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -6145,13 +6145,13 @@
                   <c:v>358.81689453125</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>363.3197631835938</c:v>
+                  <c:v>363.3197937011719</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>354.4497375488281</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>360.6099853515625</c:v>
+                  <c:v>360.6099548339844</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>357.501953125</c:v>
@@ -6166,7 +6166,7 @@
                   <c:v>350.4075012207031</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>346.7550354003906</c:v>
+                  <c:v>346.7550659179688</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>320.7745361328125</c:v>
@@ -6190,7 +6190,7 @@
                   <c:v>347.6326904296875</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>363.3579406738281</c:v>
+                  <c:v>363.3579711914062</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>355.2452697753906</c:v>
@@ -6208,7 +6208,7 @@
                   <c:v>331.1383972167969</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>368.4255065917969</c:v>
+                  <c:v>368.425537109375</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>366.7825622558594</c:v>
@@ -6265,7 +6265,7 @@
                   <c:v>355.0433044433594</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>335.9761657714844</c:v>
+                  <c:v>335.9761352539062</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>351.4449157714844</c:v>
@@ -6316,7 +6316,7 @@
                   <c:v>344.8504638671875</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>362.1937561035156</c:v>
+                  <c:v>362.1937866210938</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>362.0965576171875</c:v>
@@ -6389,7 +6389,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6404,7 +6404,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6433,7 +6433,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6448,7 +6448,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6477,7 +6477,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6492,7 +6492,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -7004,13 +7004,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H810"/>
+  <dimension ref="A1:S810"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7035,8 +7035,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>362.4</v>
       </c>
@@ -7061,8 +7067,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>359.544</v>
       </c>
@@ -7082,13 +7094,19 @@
         <v>348.3086853027344</v>
       </c>
       <c r="G3">
+        <v>375</v>
+      </c>
+      <c r="H3">
+        <v>375</v>
+      </c>
+      <c r="R3">
         <v>371</v>
       </c>
-      <c r="H3">
+      <c r="S3">
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>358.201</v>
       </c>
@@ -7108,13 +7126,19 @@
         <v>355.6351013183594</v>
       </c>
       <c r="G4">
+        <v>375</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>371</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>355.336</v>
       </c>
@@ -7134,13 +7158,19 @@
         <v>361.43017578125</v>
       </c>
       <c r="G5">
+        <v>375</v>
+      </c>
+      <c r="H5">
+        <v>375</v>
+      </c>
+      <c r="R5">
         <v>371</v>
       </c>
-      <c r="H5">
+      <c r="S5">
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>355.427</v>
       </c>
@@ -7160,13 +7190,19 @@
         <v>362.1486511230469</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>375</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>371</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>360.582</v>
       </c>
@@ -7186,13 +7222,19 @@
         <v>355.9638671875</v>
       </c>
       <c r="G7">
+        <v>375</v>
+      </c>
+      <c r="H7">
+        <v>375</v>
+      </c>
+      <c r="R7">
         <v>371</v>
       </c>
-      <c r="H7">
+      <c r="S7">
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>357.585</v>
       </c>
@@ -7212,7 +7254,7 @@
         <v>364.4255065917969</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>338.571</v>
       </c>
@@ -7232,7 +7274,7 @@
         <v>345.9398193359375</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>355.528</v>
       </c>
@@ -7252,7 +7294,7 @@
         <v>342.596435546875</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>362.336</v>
       </c>
@@ -7272,7 +7314,7 @@
         <v>357.6010131835938</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>356.563</v>
       </c>
@@ -7292,7 +7334,7 @@
         <v>350.1737060546875</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>330.878</v>
       </c>
@@ -7312,7 +7354,7 @@
         <v>309.1197509765625</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>340.384</v>
       </c>
@@ -7332,7 +7374,7 @@
         <v>338.0857543945312</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>359.105</v>
       </c>
@@ -7352,7 +7394,7 @@
         <v>362.9799194335938</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>358</v>
       </c>
@@ -7669,7 +7711,7 @@
         <v>355.721</v>
       </c>
       <c r="F31">
-        <v>363.3197631835938</v>
+        <v>363.3197937011719</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7709,7 +7751,7 @@
         <v>338.811</v>
       </c>
       <c r="F33">
-        <v>360.6099853515625</v>
+        <v>360.6099548339844</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7809,7 +7851,7 @@
         <v>336.984</v>
       </c>
       <c r="F38">
-        <v>346.7550354003906</v>
+        <v>346.7550659179688</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7969,7 +8011,7 @@
         <v>340.297</v>
       </c>
       <c r="F46">
-        <v>363.3579406738281</v>
+        <v>363.3579711914062</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8089,7 +8131,7 @@
         <v>367.914</v>
       </c>
       <c r="F52">
-        <v>368.4255065917969</v>
+        <v>368.425537109375</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8469,7 +8511,7 @@
         <v>338.459</v>
       </c>
       <c r="F71">
-        <v>335.9761657714844</v>
+        <v>335.9761352539062</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8809,7 +8851,7 @@
         <v>363.748</v>
       </c>
       <c r="F88">
-        <v>362.1937561035156</v>
+        <v>362.1937866210938</v>
       </c>
     </row>
     <row r="89" spans="1:6">
